--- a/Testdata/TC_128.xlsx
+++ b/Testdata/TC_128.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>8RwAAB+LCAAAAAAAAAOlWVtvI0kV/istP8GD3W07M7mo0itfkmDhSxQ7ZLIvqN1diYu0u0xXdRK/LQK0o4WRkNgdBOyCQEIgJHZXYlmxO6D5L6txZnjiL3Dq0jfbmXEPo2jSdW516tSpc76qoHdup75xjUNGaLBfqlaskoEDl3okuNwvRfyiXH1YesdGB7cu9o+d0JliDsIGaAVs75aR/dKE89mead7c3FRu6hUaXpo1y6qaj3rdoTvBU6dMAsadwMWlRMt7s1bJRi1v2sPc8RzuKM39UmfYqbQwcdtA6zmBc4nDSjNiJMCMHQSccIKZ0Ayxw3Gr3fueWphdqzysVJG5Qk8lmxHxPSWXk1R0LQfT4hGZYrtmVXfK1m7Zqo+s7b1abW/rYWV7q/purJgIoq7D+BCH18SVhCF3pjOpbu1adWu7Vtt6iMy1QmArDYCNBr53gq8Jw14L+z4rFBFTb2DD5bDqYsG0kJnR1Ybe3oWj0JlNRoT7uJgbJ6dNYxxoX1IjNjqkIXYhfm/lUh/fDEId1tGsC9zRhIR83nbmhW2dMhwOZiJIxVRt1KYBb/g45Kcz2GvsQSoAw+ZhhJF5DzNVahPmwjcJIuzZF47Psko5Jjqj4RWbOS7uwzk2hY2bwKeOBwnHCePETSddYaDjkM7AIkzepL53CFa18BpGYrkTQIjFtE1Kr1Lv1jGR3FW5v7CnU4fH4it0NJzQm0Hgz4fRmLkhGWOv3Yyl1/KQOJBauxUxTqfgRUpCipah9HrmHP7BGVzmoDZ2ydTxj32II7PrYChHQI2I0wvCW9SPpgGL3VqiojNY1AjfJotMxmgA+xuIuNOgE8TyKtJrWXmFE3qTzLnKkHHIkBvMjXd8lbEs3AZavIOrHLkpYpWHxIcWkd2ODDWfGMMJxnxtVigOEtXwUDQduznvR9MxnLAxHLNrOStDZspHkKqQ7uCXbUEjKcufkWXtyR/wI2Gjg8C7Xy5mIpguM5ddBd4SCcGa/KbvBFdAPSN80m/Ea1nDQSoC98qv8hAc3pnvzCU5iVKWhjqB60ceVjWhE1zIFBW+qU29l41WSF045jZygvloPoPSzMgeh4/9EjTrPcZDgAMl26VRwMO5KB7I1KJv0mHROJATOP7GOhch/mEEKGR+GAVui3qbz+ap6JwGhG/uIY1CVRE3V5HRE8UxYm0syoys+xvru0XWxMJC4tMAT2lA3M2jDUEW3ntvsRAWn6qNNbA6XxvL+9DaVecTZ31jtRAgJPS6QtM0GKMukcmqj4eX0TfvOTJtfOFEPsA3Dl32Mqm9y2TUYFfLMlkSOg39uALaAhwzQMeuN624gB8EAqy4dCoIJoDSsyEys/ICBLn4ILjsOsFlBDAjqSvL9KT+ihY5Cp2AieUkqGKpFK8XQnGdUmjHVsVrEMlEUMWLAheZS3JohKczGjp+DwJDDnXaacgEaKTn8IkeQW/zsRsH2UxVE628Z7HjbxKTTUotQxx4XSaXiFJIrEXh8FQmpSGxyh4cS7/l+GQcqqoat/J1PNiwFB/G9VcsriBWjPcA7mLQfb+L5wKgpwNNlylbjRkqgUUhtYcnWzu1rd0dUJJjJFfcAp+oTyS+NI4oXAeDKegZgIwxIMc9Y87hKKjg6AZUQC+rgQ7j2i6n70GK5gh5PkCMSwKdY0UuYaTydg+A58SfZyTV6rrUBcHFLx4vvvry7sPni68/vvvwy8VP//Tff/1m8dUXi8efvHr/7y+efaDWp4TRyBn7WDo0au7sWPUtSK2EhEQ8TQmIvcjlknZ+LnFwMkb6OicHrYNO66jblCUkIcbqqouY4qY4p1E6HKpFyInkLprx5isRexSXJD3OcTNdyRY3t2ucl87y71NUsXj57M8vn/3tXm0dsBReVXd365ugL7gDb5Wt2j3oq5sr+1r4QblWywgvyaATVfOTOHU8u161dqs721Y1Kd9eksHrhJZZ2tLIuTSX9BSppRBRkgLZccyUeT/CjCdsdRIyAxXEu3/87NVnH+WkdHQ1JW8FnJPIRUxmxgNpun8yMoaD05PWgTE6GIo8SXkZOWX8NcJ69uQ8ZZNm9bTlUmodVZl7reLyjEchjWYrlSKlrpFcWzNWuUuaMjarrqW8NfJ61z5+vE5Br6SdAtLkCSNLQzmOImX4unY9+dGLr5+/eP6Tl//+1d3TzxZP/rj4549zdvRsyf0eUhcOSHaYZDJUMd01lijobChjemV9P9MlNFFch44pCTizaw+25FVIDxHoVoU5+Rt1ptC5pGUZNqAvUdB3HHZwy/VhtfvIzBPA0ZkDTZOmV8iEoOpyGt7/fPK7u99+cff081fv/3XxwV8WP3/68tnvX336B3WS7j76/O7Jp7pyLxd36Yu4mCosZ8iXDtcQJ8wQLdj45r1fGgHlBiAHI5JV5pv3fp0xJhyVGCO1DMgscSTvwopoVlnoGRlXEh9yeomK6uMt0ZbqiYRuTHRG3HSSd8vCFMBLQzK+1RmVI4YNCqDo27CSvHCqvKmeVlFt8njbqlVrmqu8EUsYOywT+iOfjh3fiBnyHWFJJKf1eoVUVs531B00G91URDkxCD0cijRUHyhGhqJNdFg8ilMtQwEu4Dc38sXTz4rYKiuxnClnpn5DuWh44kF9/YtDTgK1ojBUKCfQr/LDaAaYNn5su58vHyAzMLavIGcW2KbjTjvPh3GGC80tzxYEyZcVSrNUteow8VyjUGlfhCYdAi/3aAnh0A/vCj1dE9gSUxSegzCk4drqk3JisR4AYqgoZhrxREbuqQLPXrpXMSGueMmHusDpFdI29jEv9iptpto9QL9vqwt7X1S1wwa+p4NZ7AaRhCU1kH2aF4ny/77Mq2RrhCGAJfGOV/gpPb5/nsC1taA3ailSUVzkYHb91n1IQsYfiUqgvxTlPKGcK9T5SNyb1Iccn9v1B4oAAmbWuplzMz66XP2BhPpdMiUFb3dWfL7zRiCWs5mCZZ1imSJaSx/fAmjMWICiOP4BtA31HFLEmkpYqKWJvniCZORywos6tj12sIfHVtkd41p5y7N2yrsY18vVKvzvuLWaZT0QD5jaOFQOgm8KTmLGG5b+4dL+H2OnMenxHAAA</t>
+          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/iuWn+DB7nY7mXGiSq98S7Cw4yh2yMy+oHZ3OS7S7jZd1Un8tgjQjhZGQmJ3ELALAgmBkNhdiWXF7oDmv6zGmeGJv8CpS1/tzLjDKNJ0nVudOnXqnK/K6J2buVu6wgElvndQrlX1cgl7tu8Q7+KgHLJppfag/I6Jujc2dk+swJpjBsIl0PLo/g0lB+UZY4t9Tbu+vq5e16t+cKEZul7THg36I3uG51aFeJRZno3LsZbzdq2yidrOfICZ5VjMkpoH5d6oV21jYneANrA86wIH1VZIiYcp7XqMMIIp1wywxXC7M/ieXJhpVB9Ua0hboyeSrZC4jpTLSEq6koNp8ZjMsWnohl7RGxVDH9fq+7q+X3tY3d2rvRspxoKob1E2wsEVsQVhxKz5QqjrDUOv1WHND5G2UQhsJQEw0dB1TvEVodhpY9elhSKiqQ1s2gxWXSyYOtJSusrQ/V04CqzFbEyYi4uqH/oBtiFQ95r7GF8PAxW/8aIP3PGMBGzZsZaFbZ1RHAwXPBrFVE3U8T3WdHHAzhawqdiBPQeGyYIQI+0OZqLUIdSGb+KF2DGnlkvTShkmOveDS7qwbHwMB1bjNq4917ccyCxGKCN2MukaA50E/gIswuQt33UOwaoS3sCILfc8CDGftuX7l4l3m5hI5IDIBtjTucUi8TU6Gs3866HnLkfhhNoBmWCn04qkN/IQP3lKux1S5s/Bi4SEJC1FGQy0JfyDw5bnoA62ydxyT1yIIzXrYChDQM2Q+VPC2r4bzj0auZWjonNY1BjfxIuMx2gI++vxuPtez4vkZaQ3srIKp/51POc6Q8QhRW5SO9rxdUZeuAO0aAfXOWJT+CoPiQu9IL0dKWo2MUYzjNnGrJAcxMveIe8uZmt5HM4ncMImcMyuxKwUaQkfQapCuoNfpg7VsyL+xlCCxR/4EbNR13PulouYCKZLzWXWgJcjIViT23It7xKo54TNjpvRWjZwkIzAnfLrPASHd+FaS0GOo5SmoZ5nu6GDZU3oeVORotw3ual3stEaqQ/H3ESWtxwvF1CDKdln8HFQhq68T1kAfb9s2n7osWDJiwfSlOjbdGg48cQElru1zjTAPwwBbiwPQ89u+872szkyOmceYdt76IeBrIjbq4jo8eIY0g7mZUbU/a317SJrokEh8bmH575H7O2jDUHm3jv3WAiNTtXWGlier63lXWjtsvPxs761WgBYEXpdoWmalPo2EcmqjoeT0tfuODIdPLVCF3Aagy57EdfePBk16WVeJk1CZ4EbVUCTo2AKMNh25lUb8AOHelXbn3OCBujzfIS0tDwHQTbuehd9y7sIAWbEdSVPj+svb5HjwPIoX06MKnKleLMQiuqURDumLF7DUCSCLF4+cJGWk0NjPF/4geUOIDDkUKWdgkyARgYWm6kR9DYX21GQtUQ11sp6Fjn+NjHRpOQy+IFXZTJHFEJ8LRJwJzIJDfFVDuBYum3LJZNAVtWolW/iwYYl+DCqv3xxBbFitAdw6YLu+1285Eg8GSi6SNlaxJAJzAupOTrdaRg7ew1QEmMkVtwGn3yXCHxZOvLh3ufNQa8EyBgDctwvLRkcBRkc1YAK6KU10GFU28X0A0jRDCHLB4hxQaBzrMnFjETeHADwnLnLlKRcXd+3QXD1iyerr768/fDF6uuPbz/8cvXTP/33X79ZffXF6sknr9//+8vnH8j1SWE0tiYuFg6NW42GXt+B1IpJiMdTE4DYCW0maI8fCxwcj5G6t4lBu9trH/VbooTExEhddhGNXwmXfpgMR3IRYiKxi1q0+VLEHEclSY0z3FRXMvkV7QpnpdP8uxRlLF49//Or53+7U1sFLIFXtb29+jboC665OxXduAN99TNlXwnvVgwjJZyTQaey5sdx6jlmvabv1RoP9Vpcvp04gzcJ5VnK0ti60HJ6ktSWiChOgfQ4Yoq8H2PKYrY8CamBDOLtP372+rOPMlIquoqStQLOCeTCJ9OigTB9fDoujYZnp+1uadwd8TxJeCk5afwNwmr2+Dylk2b9tGVSahNVmnujYn7Go8APF2uVIqFukNxYM9a5OU0Rm3XXEt4GebVrHz/ZpKBW0kkAqXl61ipNvDjJBA1lOJKU4qva9fRHL79+8fLFT179+1e3zz5bPf3j6p8/zthRs8X3e0hdOCDpYZzJUMVU18hR0PlIxPRS/36qSygivw6d+MRj1DR2d8RVSA0R6Na4OfE/6s2hcwnLImxAz1HQdyzavWHqsJrHSMsSwNGFBU3TT66QMUHW5SS8//nkd7e//eL22eev3//r6oO/rH7+7NXz37/+9A/yJN1+9Pnt009V5c4Xd+ELv5hKLFcSLx12iZ+wEm/BpW/e+2XJ81kJkEMpFFXmm/d+nTLGHRUYI7EMyCx2JOvCmmhameuVUq7EPmT0YhXZx9u8LdVjCdWY/AWxk0nerXBTAC9LgvGt3rgSUlzyARR9G1aSFU6Ut9VTKrJNnjzUjZqhuNIbvoSJRVOhP3L9ieWWIoZ4R8iJZLTerJDIivmO+sNWs5+ISCeGgYMDnobyA/VohA2j9EpRgAuYzQ5d/tyzJrbOQtFXqoRp6t1k2nT4a/nmV4aMBGqHQSCRjaee3EfhAnBs9MB2N188Oqag67GEmWkwm4x7nSwfxikuNLQsmxMEX1QlxZIVqkf5E41Eosc8NMkQeJmHSgiHelWXiOmKwDZovNh0g8APNlachBOJDQAEQxXRkojHMhqfUgJmJ9mriBBVufhDXtrUCv0OdjEr/OQcaQ8A8d5XF/a+qGqPDl1HBbPYrSEOS2Ig/e7OE6WoM80gACjEX+kKP5T3iXfZK7Z6U39QM/S6YeFpow55MrH0RmPXqNf3sG1MLVibNMovkdwEv4XwK1ixSQAAZtWT6/IpXKALWpMBFor8SgmREgdSFfZ4jA5JQNkjXqLUl6Q8jimPJRx+xP2TH2L82KzvSgIIaOnJtIzXUX1h8ica3+2TOSl47dSjIpQ1AmmwWEi8WHRDoecd4xtAsykLUK0nP4B+Jt9piliTpwqKfKwf2RqFk8LmtEj5BPg8se6n3XUAmN1fW/zgQdz/wwGBvO5roudRcjFjRffVgOsffoCNijG17coODCrQjScVx5ru1XR9Wnd2Df4wrYxDdyD4uuAkvKcQGlpucT0t94u1+T+BTy4e6h4AAA==</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="###0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Information</t>
+          <t>Function Description</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796309</v>
+        <v>-0.3785388757796306</v>
       </c>
     </row>
     <row r="21">
@@ -758,4 +758,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>36</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Consolidated Government Revenue: ytd</Name>
+          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
+          <SeriesId>310918701</SeriesId>
+          <Code>SR4824980</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9AE2B99-5848-44A2-B5F9-8F6E1470D714}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_128.xlsx
+++ b/Testdata/TC_128.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>6h4AAB+LCAAAAAAAAAOlWVtvI0kV/iuWn+DB7nY7mXGiSq98S7Cw4yh2yMy+oHZ3OS7S7jZd1Un8tgjQjhZGQmJ3ELALAgmBkNhdiWXF7oDmv6zGmeGJv8CpS1/tzLjDKNJ0nVudOnXqnK/K6J2buVu6wgElvndQrlX1cgl7tu8Q7+KgHLJppfag/I6Jujc2dk+swJpjBsIl0PLo/g0lB+UZY4t9Tbu+vq5e16t+cKEZul7THg36I3uG51aFeJRZno3LsZbzdq2yidrOfICZ5VjMkpoH5d6oV21jYneANrA86wIH1VZIiYcp7XqMMIIp1wywxXC7M/ieXJhpVB9Ua0hboyeSrZC4jpTLSEq6koNp8ZjMsWnohl7RGxVDH9fq+7q+X3tY3d2rvRspxoKob1E2wsEVsQVhxKz5QqjrDUOv1WHND5G2UQhsJQEw0dB1TvEVodhpY9elhSKiqQ1s2gxWXSyYOtJSusrQ/V04CqzFbEyYi4uqH/oBtiFQ95r7GF8PAxW/8aIP3PGMBGzZsZaFbZ1RHAwXPBrFVE3U8T3WdHHAzhawqdiBPQeGyYIQI+0OZqLUIdSGb+KF2DGnlkvTShkmOveDS7qwbHwMB1bjNq4917ccyCxGKCN2MukaA50E/gIswuQt33UOwaoS3sCILfc8CDGftuX7l4l3m5hI5IDIBtjTucUi8TU6Gs3866HnLkfhhNoBmWCn04qkN/IQP3lKux1S5s/Bi4SEJC1FGQy0JfyDw5bnoA62ydxyT1yIIzXrYChDQM2Q+VPC2r4bzj0auZWjonNY1BjfxIuMx2gI++vxuPtez4vkZaQ3srIKp/51POc6Q8QhRW5SO9rxdUZeuAO0aAfXOWJT+CoPiQu9IL0dKWo2MUYzjNnGrJAcxMveIe8uZmt5HM4ncMImcMyuxKwUaQkfQapCuoNfpg7VsyL+xlCCxR/4EbNR13PulouYCKZLzWXWgJcjIViT23It7xKo54TNjpvRWjZwkIzAnfLrPASHd+FaS0GOo5SmoZ5nu6GDZU3oeVORotw3ual3stEaqQ/H3ESWtxwvF1CDKdln8HFQhq68T1kAfb9s2n7osWDJiwfSlOjbdGg48cQElru1zjTAPwwBbiwPQ89u+872szkyOmceYdt76IeBrIjbq4jo8eIY0g7mZUbU/a317SJrokEh8bmH575H7O2jDUHm3jv3WAiNTtXWGlier63lXWjtsvPxs761WgBYEXpdoWmalPo2EcmqjoeT0tfuODIdPLVCF3Aagy57EdfePBk16WVeJk1CZ4EbVUCTo2AKMNh25lUb8AOHelXbn3OCBujzfIS0tDwHQTbuehd9y7sIAWbEdSVPj+svb5HjwPIoX06MKnKleLMQiuqURDumLF7DUCSCLF4+cJGWk0NjPF/4geUOIDDkUKWdgkyARgYWm6kR9DYX21GQtUQ11sp6Fjn+NjHRpOQy+IFXZTJHFEJ8LRJwJzIJDfFVDuBYum3LJZNAVtWolW/iwYYl+DCqv3xxBbFitAdw6YLu+1285Eg8GSi6SNlaxJAJzAupOTrdaRg7ew1QEmMkVtwGn3yXCHxZOvLh3ufNQa8EyBgDctwvLRkcBRkc1YAK6KU10GFU28X0A0jRDCHLB4hxQaBzrMnFjETeHADwnLnLlKRcXd+3QXD1iyerr768/fDF6uuPbz/8cvXTP/33X79ZffXF6sknr9//+8vnH8j1SWE0tiYuFg6NW42GXt+B1IpJiMdTE4DYCW0maI8fCxwcj5G6t4lBu9trH/VbooTExEhddhGNXwmXfpgMR3IRYiKxi1q0+VLEHEclSY0z3FRXMvkV7QpnpdP8uxRlLF49//Or53+7U1sFLIFXtb29+jboC665OxXduAN99TNlXwnvVgwjJZyTQaey5sdx6jlmvabv1RoP9Vpcvp04gzcJ5VnK0ti60HJ6ktSWiChOgfQ4Yoq8H2PKYrY8CamBDOLtP372+rOPMlIquoqStQLOCeTCJ9OigTB9fDoujYZnp+1uadwd8TxJeCk5afwNwmr2+Dylk2b9tGVSahNVmnujYn7Go8APF2uVIqFukNxYM9a5OU0Rm3XXEt4GebVrHz/ZpKBW0kkAqXl61ipNvDjJBA1lOJKU4qva9fRHL79+8fLFT179+1e3zz5bPf3j6p8/zthRs8X3e0hdOCDpYZzJUMVU18hR0PlIxPRS/36qSygivw6d+MRj1DR2d8RVSA0R6Na4OfE/6s2hcwnLImxAz1HQdyzavWHqsJrHSMsSwNGFBU3TT66QMUHW5SS8//nkd7e//eL22eev3//r6oO/rH7+7NXz37/+9A/yJN1+9Pnt009V5c4Xd+ELv5hKLFcSLx12iZ+wEm/BpW/e+2XJ81kJkEMpFFXmm/d+nTLGHRUYI7EMyCx2JOvCmmhameuVUq7EPmT0YhXZx9u8LdVjCdWY/AWxk0nerXBTAC9LgvGt3rgSUlzyARR9G1aSFU6Ut9VTKrJNnjzUjZqhuNIbvoSJRVOhP3L9ieWWIoZ4R8iJZLTerJDIivmO+sNWs5+ISCeGgYMDnobyA/VohA2j9EpRgAuYzQ5d/tyzJrbOQtFXqoRp6t1k2nT4a/nmV4aMBGqHQSCRjaee3EfhAnBs9MB2N188Oqag67GEmWkwm4x7nSwfxikuNLQsmxMEX1QlxZIVqkf5E41Eosc8NMkQeJmHSgiHelWXiOmKwDZovNh0g8APNlachBOJDQAEQxXRkojHMhqfUgJmJ9mriBBVufhDXtrUCv0OdjEr/OQcaQ8A8d5XF/a+qGqPDl1HBbPYrSEOS2Ig/e7OE6WoM80gACjEX+kKP5T3iXfZK7Z6U39QM/S6YeFpow55MrH0RmPXqNf3sG1MLVibNMovkdwEv4XwK1ixSQAAZtWT6/IpXKALWpMBFor8SgmREgdSFfZ4jA5JQNkjXqLUl6Q8jimPJRx+xP2TH2L82KzvSgIIaOnJtIzXUX1h8ica3+2TOSl47dSjIpQ1AmmwWEi8WHRDoecd4xtAsykLUK0nP4B+Jt9piliTpwqKfKwf2RqFk8LmtEj5BPg8se6n3XUAmN1fW/zgQdz/wwGBvO5roudRcjFjRffVgOsffoCNijG17coODCrQjScVx5ru1XR9Wnd2Df4wrYxDdyD4uuAkvKcQGlpucT0t94u1+T+BTy4e6h4AAA==</t>
+          <t>8RwAAB+LCAAAAAAAAAOlWVtvI0kV/istP8GD3W07M7mo0itfkmDhSxQ7ZLIvqN1diYu0u0xXdRK/LQK0o4WRkNgdBOyCQEIgJHZXYlmxO6D5L6txZnjiL3Dq0jfbmXEPo2jSdW516tSpc76qoHdup75xjUNGaLBfqlaskoEDl3okuNwvRfyiXH1YesdGB7cu9o+d0JliDsIGaAVs75aR/dKE89mead7c3FRu6hUaXpo1y6qaj3rdoTvBU6dMAsadwMWlRMt7s1bJRi1v2sPc8RzuKM39UmfYqbQwcdtA6zmBc4nDSjNiJMCMHQSccIKZ0Ayxw3Gr3fueWphdqzysVJG5Qk8lmxHxPSWXk1R0LQfT4hGZYrtmVXfK1m7Zqo+s7b1abW/rYWV7q/purJgIoq7D+BCH18SVhCF3pjOpbu1adWu7Vtt6iMy1QmArDYCNBr53gq8Jw14L+z4rFBFTb2DD5bDqYsG0kJnR1Ybe3oWj0JlNRoT7uJgbJ6dNYxxoX1IjNjqkIXYhfm/lUh/fDEId1tGsC9zRhIR83nbmhW2dMhwOZiJIxVRt1KYBb/g45Kcz2GvsQSoAw+ZhhJF5DzNVahPmwjcJIuzZF47Psko5Jjqj4RWbOS7uwzk2hY2bwKeOBwnHCePETSddYaDjkM7AIkzepL53CFa18BpGYrkTQIjFtE1Kr1Lv1jGR3FW5v7CnU4fH4it0NJzQm0Hgz4fRmLkhGWOv3Yyl1/KQOJBauxUxTqfgRUpCipah9HrmHP7BGVzmoDZ2ydTxj32II7PrYChHQI2I0wvCW9SPpgGL3VqiojNY1AjfJotMxmgA+xuIuNOgE8TyKtJrWXmFE3qTzLnKkHHIkBvMjXd8lbEs3AZavIOrHLkpYpWHxIcWkd2ODDWfGMMJxnxtVigOEtXwUDQduznvR9MxnLAxHLNrOStDZspHkKqQ7uCXbUEjKcufkWXtyR/wI2Gjg8C7Xy5mIpguM5ddBd4SCcGa/KbvBFdAPSN80m/Ea1nDQSoC98qv8hAc3pnvzCU5iVKWhjqB60ceVjWhE1zIFBW+qU29l41WSF045jZygvloPoPSzMgeh4/9EjTrPcZDgAMl26VRwMO5KB7I1KJv0mHROJATOP7GOhch/mEEKGR+GAVui3qbz+ap6JwGhG/uIY1CVRE3V5HRE8UxYm0syoys+xvru0XWxMJC4tMAT2lA3M2jDUEW3ntvsRAWn6qNNbA6XxvL+9DaVecTZ31jtRAgJPS6QtM0GKMukcmqj4eX0TfvOTJtfOFEPsA3Dl32Mqm9y2TUYFfLMlkSOg39uALaAhwzQMeuN624gB8EAqy4dCoIJoDSsyEys/ICBLn4ILjsOsFlBDAjqSvL9KT+ihY5Cp2AieUkqGKpFK8XQnGdUmjHVsVrEMlEUMWLAheZS3JohKczGjp+DwJDDnXaacgEaKTn8IkeQW/zsRsH2UxVE628Z7HjbxKTTUotQxx4XSaXiFJIrEXh8FQmpSGxyh4cS7/l+GQcqqoat/J1PNiwFB/G9VcsriBWjPcA7mLQfb+L5wKgpwNNlylbjRkqgUUhtYcnWzu1rd0dUJJjJFfcAp+oTyS+NI4oXAeDKegZgIwxIMc9Y87hKKjg6AZUQC+rgQ7j2i6n70GK5gh5PkCMSwKdY0UuYaTydg+A58SfZyTV6rrUBcHFLx4vvvry7sPni68/vvvwy8VP//Tff/1m8dUXi8efvHr/7y+efaDWp4TRyBn7WDo0au7sWPUtSK2EhEQ8TQmIvcjlknZ+LnFwMkb6OicHrYNO66jblCUkIcbqqouY4qY4p1E6HKpFyInkLprx5isRexSXJD3OcTNdyRY3t2ucl87y71NUsXj57M8vn/3tXm0dsBReVXd365ugL7gDb5Wt2j3oq5sr+1r4QblWywgvyaATVfOTOHU8u161dqs721Y1Kd9eksHrhJZZ2tLIuTSX9BSppRBRkgLZccyUeT/CjCdsdRIyAxXEu3/87NVnH+WkdHQ1JW8FnJPIRUxmxgNpun8yMoaD05PWgTE6GIo8SXkZOWX8NcJ69uQ8ZZNm9bTlUmodVZl7reLyjEchjWYrlSKlrpFcWzNWuUuaMjarrqW8NfJ61z5+vE5Br6SdAtLkCSNLQzmOImX4unY9+dGLr5+/eP6Tl//+1d3TzxZP/rj4549zdvRsyf0eUhcOSHaYZDJUMd01lijobChjemV9P9MlNFFch44pCTizaw+25FVIDxHoVoU5+Rt1ptC5pGUZNqAvUdB3HHZwy/VhtfvIzBPA0ZkDTZOmV8iEoOpyGt7/fPK7u99+cff081fv/3XxwV8WP3/68tnvX336B3WS7j76/O7Jp7pyLxd36Yu4mCosZ8iXDtcQJ8wQLdj45r1fGgHlBiAHI5JV5pv3fp0xJhyVGCO1DMgscSTvwopoVlnoGRlXEh9yeomK6uMt0ZbqiYRuTHRG3HSSd8vCFMBLQzK+1RmVI4YNCqDo27CSvHCqvKmeVlFt8njbqlVrmqu8EUsYOywT+iOfjh3fiBnyHWFJJKf1eoVUVs531B00G91URDkxCD0cijRUHyhGhqJNdFg8ilMtQwEu4Dc38sXTz4rYKiuxnClnpn5DuWh44kF9/YtDTgK1ojBUKCfQr/LDaAaYNn5su58vHyAzMLavIGcW2KbjTjvPh3GGC80tzxYEyZcVSrNUteow8VyjUGlfhCYdAi/3aAnh0A/vCj1dE9gSUxSegzCk4drqk3JisR4AYqgoZhrxREbuqQLPXrpXMSGueMmHusDpFdI29jEv9iptpto9QL9vqwt7X1S1wwa+p4NZ7AaRhCU1kH2aF4ny/77Mq2RrhCGAJfGOV/gpPb5/nsC1taA3ailSUVzkYHb91n1IQsYfiUqgvxTlPKGcK9T5SNyb1Iccn9v1B4oAAmbWuplzMz66XP2BhPpdMiUFb3dWfL7zRiCWs5mCZZ1imSJaSx/fAmjMWICiOP4BtA31HFLEmkpYqKWJvniCZORywos6tj12sIfHVtkd41p5y7N2yrsY18vVKvzvuLWaZT0QD5jaOFQOgm8KTmLGG5b+4dL+H2OnMenxHAAA</t>
         </r>
       </text>
     </comment>
@@ -42,7 +42,7 @@
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="###0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -523,7 +523,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Function Description</t>
+          <t>Function Information</t>
         </is>
       </c>
       <c r="B11" s="2"/>
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="B20" s="2">
-        <v>-0.3785388757796306</v>
+        <v>-0.3785388757796309</v>
       </c>
     </row>
     <row r="21">
@@ -758,37 +758,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>36</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Consolidated Government Revenue: ytd</Name>
-          <DisplayName>Consolidated Government Revenue: ytd</DisplayName>
-          <SeriesId>310918701</SeriesId>
-          <Code>SR4824980</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9AE2B99-5848-44A2-B5F9-8F6E1470D714}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>